--- a/biology/Écologie/Great_Raft/Great_Raft.xlsx
+++ b/biology/Écologie/Great_Raft/Great_Raft.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le « Great Raft » est un ensemble d'embâcles naturels d'arbres et de dépôts qui obstruaient les rivières Rouge et Atchafalaya entre 1100 et 1838. De par sa taille, il est unique en Amérique du Nord.
 Le constructeur de bateaux à vapeur et capitaine Henry Miller Shreve (en) (1785–1851) est à l'origine du retrait du Great Raft, une tâche qui a été poursuivie par d'autres jusqu'à la fin du XIXe siècle.
